--- a/triba27_ALL_injection_rates_bit_reverse_m5out_stats.xlsx
+++ b/triba27_ALL_injection_rates_bit_reverse_m5out_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\soliman\m5out_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEBBF6A-D74F-4AAA-A09E-DC02FBE288DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E074EE-6D6D-4531-AD76-E22766CBC79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>injection_rate</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>average_packet_vnet_latency</t>
+  </si>
+  <si>
+    <t>Pkt_inject</t>
+  </si>
+  <si>
+    <t>Pkt_recived</t>
+  </si>
+  <si>
+    <t>Reception_rate</t>
   </si>
 </sst>
 </file>
@@ -398,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" activeCellId="1" sqref="A1:A29 G1:G29"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,7 +426,7 @@
     <col min="9" max="9" width="25.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,8 +454,17 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -481,7 +499,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.02</v>
       </c>
@@ -516,7 +534,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.03</v>
       </c>
@@ -551,7 +569,7 @@
         <v>4049</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.04</v>
       </c>
@@ -586,7 +604,7 @@
         <v>5365</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.05</v>
       </c>
@@ -621,7 +639,7 @@
         <v>6779</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.06</v>
       </c>
@@ -656,7 +674,7 @@
         <v>8007</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -691,7 +709,7 @@
         <v>9070</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.08</v>
       </c>
@@ -726,7 +744,7 @@
         <v>10118</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.09</v>
       </c>
@@ -761,7 +779,7 @@
         <v>11047</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -796,7 +814,7 @@
         <v>11976</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.11</v>
       </c>
@@ -831,7 +849,7 @@
         <v>12814</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.12</v>
       </c>
@@ -866,7 +884,7 @@
         <v>13604</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.13</v>
       </c>
@@ -901,7 +919,7 @@
         <v>14452</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.14000000000000001</v>
       </c>
@@ -936,7 +954,7 @@
         <v>15267</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.15</v>
       </c>
